--- a/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Broker).xlsx
+++ b/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Broker).xlsx
@@ -507,21 +507,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6a05f98f-100f-42d9-86b7-a0d589eccbb5</t>
+          <t>7f2d17d3-13fd-4f18-a678-5805ab5fa44d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Verena Minerals Corp.</t>
+          <t>Haemacure Corp.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/10/1981</t>
+          <t>12/8/1993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -530,21 +530,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>266-884-5949</t>
+          <t>757-765-4803</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sales@verenamineralscorp.org</t>
+          <t>info@haemacurecorp.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -554,20 +554,20 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CRIF</t>
+          <t>Banca d italia</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>342445107771564</t>
+          <t>348484371958296</t>
         </is>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$53,973,752,560.00</t>
+          <t>$99,155,489,155.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -578,44 +578,44 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2d3d1c8b-3cc1-4850-a919-ba4d6cb09075</t>
+          <t>27ce7b74-7d6a-4d13-b91e-814f61dd179d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tele Sudeste Celular Participacoes S.A.</t>
+          <t>ABB Ltd.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3/4/1976</t>
+          <t>8/20/1984</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>978-489-1684</t>
+          <t>688-160-3651</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>contact@telesudestecelularparticipacoessa.org</t>
+          <t>marketing@abbltd.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Banca d italia</t>
+          <t>CRIF</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>346120517902721</t>
+          <t>379393802332017</t>
         </is>
       </c>
       <c r="M3" t="b">
@@ -638,7 +638,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$45,160,155,504.00</t>
+          <t>$27,943,368,140.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
